--- a/outcome/appendix/data/forecast/Infectious diarrhea.xlsx
+++ b/outcome/appendix/data/forecast/Infectious diarrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>136360.355335276</v>
+        <v>136373.863487845</v>
       </c>
       <c r="C2" t="n">
-        <v>119550.417625</v>
+        <v>119571.864979311</v>
       </c>
       <c r="D2" t="n">
-        <v>110651.774127698</v>
+        <v>110677.424241542</v>
       </c>
       <c r="E2" t="n">
-        <v>153170.293045551</v>
+        <v>153175.861996379</v>
       </c>
       <c r="F2" t="n">
-        <v>162068.936542854</v>
+        <v>162070.302734148</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>121473</v>
       </c>
       <c r="I2" t="n">
-        <v>14887.3553352759</v>
+        <v>14900.8634878451</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>122212.530956339</v>
+        <v>122233.501223177</v>
       </c>
       <c r="C3" t="n">
-        <v>101353.157805523</v>
+        <v>101381.96944566</v>
       </c>
       <c r="D3" t="n">
-        <v>90310.8726736255</v>
+        <v>90343.8352860444</v>
       </c>
       <c r="E3" t="n">
-        <v>143071.904107154</v>
+        <v>143085.033000695</v>
       </c>
       <c r="F3" t="n">
-        <v>154114.189239052</v>
+        <v>154123.167160311</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>45510</v>
       </c>
       <c r="I3" t="n">
-        <v>76702.5309563389</v>
+        <v>76723.5012231775</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>113531.451059489</v>
+        <v>113550.971215955</v>
       </c>
       <c r="C4" t="n">
-        <v>92341.522041984</v>
+        <v>92370.356405536</v>
       </c>
       <c r="D4" t="n">
-        <v>81124.2512043501</v>
+        <v>81158.0162112958</v>
       </c>
       <c r="E4" t="n">
-        <v>134721.380076994</v>
+        <v>134731.586026374</v>
       </c>
       <c r="F4" t="n">
-        <v>145938.650914628</v>
+        <v>145943.926220614</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>48491</v>
       </c>
       <c r="I4" t="n">
-        <v>65040.4510594891</v>
+        <v>65059.9712159551</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>89771.8461072931</v>
+        <v>89780.4580956287</v>
       </c>
       <c r="C5" t="n">
-        <v>68548.5995585519</v>
+        <v>68565.7117331305</v>
       </c>
       <c r="D5" t="n">
-        <v>57313.6914852666</v>
+        <v>57335.3033866342</v>
       </c>
       <c r="E5" t="n">
-        <v>110995.092656034</v>
+        <v>110995.204458127</v>
       </c>
       <c r="F5" t="n">
-        <v>122230.00072932</v>
+        <v>122225.612804623</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>58544</v>
       </c>
       <c r="I5" t="n">
-        <v>31227.8461072931</v>
+        <v>31236.4580956287</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>99240.9288942268</v>
+        <v>99241.3482863556</v>
       </c>
       <c r="C6" t="n">
-        <v>77918.0267183542</v>
+        <v>77925.889643855</v>
       </c>
       <c r="D6" t="n">
-        <v>66630.3641427247</v>
+        <v>66642.167436773</v>
       </c>
       <c r="E6" t="n">
-        <v>120563.831070099</v>
+        <v>120556.806928856</v>
       </c>
       <c r="F6" t="n">
-        <v>131851.493645729</v>
+        <v>131840.529135938</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>87151</v>
       </c>
       <c r="I6" t="n">
-        <v>12089.9288942268</v>
+        <v>12090.3482863556</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>116962.510720188</v>
+        <v>116961.844421046</v>
       </c>
       <c r="C7" t="n">
-        <v>95609.4316107033</v>
+        <v>95616.052388616</v>
       </c>
       <c r="D7" t="n">
-        <v>84305.7943313786</v>
+        <v>84316.2726548674</v>
       </c>
       <c r="E7" t="n">
-        <v>138315.589829673</v>
+        <v>138307.636453476</v>
       </c>
       <c r="F7" t="n">
-        <v>149619.227108998</v>
+        <v>149607.416187225</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>114085</v>
       </c>
       <c r="I7" t="n">
-        <v>2877.51072018832</v>
+        <v>2876.84442104594</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>133945.399493884</v>
+        <v>133947.163882328</v>
       </c>
       <c r="C8" t="n">
-        <v>112591.570876489</v>
+        <v>112600.6438058</v>
       </c>
       <c r="D8" t="n">
-        <v>101287.536831644</v>
+        <v>101300.478668787</v>
       </c>
       <c r="E8" t="n">
-        <v>155299.228111279</v>
+        <v>155293.683958855</v>
       </c>
       <c r="F8" t="n">
-        <v>166603.262156125</v>
+        <v>166593.849095869</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>109407</v>
       </c>
       <c r="I8" t="n">
-        <v>24538.3994938841</v>
+        <v>24540.1638823277</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>132909.576893902</v>
+        <v>132890.003797042</v>
       </c>
       <c r="C9" t="n">
-        <v>111554.515531045</v>
+        <v>111542.211692715</v>
       </c>
       <c r="D9" t="n">
-        <v>100249.82891017</v>
+        <v>100241.37318486</v>
       </c>
       <c r="E9" t="n">
-        <v>154264.63825676</v>
+        <v>154237.795901369</v>
       </c>
       <c r="F9" t="n">
-        <v>165569.324877635</v>
+        <v>165538.634409224</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>109407</v>
       </c>
       <c r="I9" t="n">
-        <v>23502.5768939025</v>
+        <v>23483.0037970418</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>108480.731353729</v>
+        <v>108480.893889541</v>
       </c>
       <c r="C10" t="n">
-        <v>87124.4797433294</v>
+        <v>87131.8901106133</v>
       </c>
       <c r="D10" t="n">
-        <v>75819.1630434667</v>
+        <v>75830.41018097</v>
       </c>
       <c r="E10" t="n">
-        <v>129836.982964128</v>
+        <v>129829.897668468</v>
       </c>
       <c r="F10" t="n">
-        <v>141142.299663991</v>
+        <v>141131.377598112</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>97075</v>
       </c>
       <c r="I10" t="n">
-        <v>11405.7313537287</v>
+        <v>11405.8938895408</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>99385.4156683531</v>
+        <v>99383.8256916656</v>
       </c>
       <c r="C11" t="n">
-        <v>78028.9629328544</v>
+        <v>78034.6198931661</v>
       </c>
       <c r="D11" t="n">
-        <v>66723.5397637955</v>
+        <v>66733.0330208213</v>
       </c>
       <c r="E11" t="n">
-        <v>120741.868403852</v>
+        <v>120733.031490165</v>
       </c>
       <c r="F11" t="n">
-        <v>132047.291572911</v>
+        <v>132034.61836251</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>79196</v>
       </c>
       <c r="I11" t="n">
-        <v>20189.4156683531</v>
+        <v>20187.8256916656</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>101095.225300783</v>
+        <v>101089.884159584</v>
       </c>
       <c r="C12" t="n">
-        <v>79738.7731487421</v>
+        <v>79740.6788162342</v>
       </c>
       <c r="D12" t="n">
-        <v>68433.3502885471</v>
+        <v>68439.092184831</v>
       </c>
       <c r="E12" t="n">
-        <v>122451.677452824</v>
+        <v>122439.089502934</v>
       </c>
       <c r="F12" t="n">
-        <v>133757.100313019</v>
+        <v>133740.676134337</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>83209</v>
       </c>
       <c r="I12" t="n">
-        <v>17886.2253007828</v>
+        <v>17880.8841595842</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>134600.196293968</v>
+        <v>134597.351073504</v>
       </c>
       <c r="C13" t="n">
-        <v>113243.729519653</v>
+        <v>113248.130110795</v>
       </c>
       <c r="D13" t="n">
-        <v>101938.298918894</v>
+        <v>101946.535211003</v>
       </c>
       <c r="E13" t="n">
-        <v>155956.663068283</v>
+        <v>155946.572036214</v>
       </c>
       <c r="F13" t="n">
-        <v>167262.093669042</v>
+        <v>167248.166936006</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>108084</v>
       </c>
       <c r="I13" t="n">
-        <v>26516.1962939681</v>
+        <v>26513.3510735044</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>144715.895661049</v>
+        <v>144725.674467062</v>
       </c>
       <c r="C14" t="n">
-        <v>122376.888063615</v>
+        <v>122393.412905812</v>
       </c>
       <c r="D14" t="n">
-        <v>110551.33176952</v>
+        <v>110571.427747557</v>
       </c>
       <c r="E14" t="n">
-        <v>167054.903258482</v>
+        <v>167057.936028312</v>
       </c>
       <c r="F14" t="n">
-        <v>178880.459552577</v>
+        <v>178879.921186567</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>177114</v>
       </c>
       <c r="I14" t="n">
-        <v>-32398.1043389515</v>
+        <v>-32388.3255329379</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>127317.095188759</v>
+        <v>127331.575094559</v>
       </c>
       <c r="C15" t="n">
-        <v>104463.078316896</v>
+        <v>104483.731672449</v>
       </c>
       <c r="D15" t="n">
-        <v>92364.8925812213</v>
+        <v>92388.8139636668</v>
       </c>
       <c r="E15" t="n">
-        <v>150171.112060621</v>
+        <v>150179.418516669</v>
       </c>
       <c r="F15" t="n">
-        <v>162269.297796296</v>
+        <v>162274.336225451</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>144447</v>
       </c>
       <c r="I15" t="n">
-        <v>-17129.9048112414</v>
+        <v>-17115.4249054413</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>117564.633177459</v>
+        <v>117578.29131779</v>
       </c>
       <c r="C16" t="n">
-        <v>94663.9818505743</v>
+        <v>94683.9638051831</v>
       </c>
       <c r="D16" t="n">
-        <v>82541.1093256275</v>
+        <v>82564.4389053001</v>
       </c>
       <c r="E16" t="n">
-        <v>140465.284504343</v>
+        <v>140472.618830397</v>
       </c>
       <c r="F16" t="n">
-        <v>152588.15702929</v>
+        <v>152592.14373028</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>141593</v>
       </c>
       <c r="I16" t="n">
-        <v>-24028.3668225411</v>
+        <v>-24014.7086822099</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>94051.7848870615</v>
+        <v>94058.0406574088</v>
       </c>
       <c r="C17" t="n">
-        <v>71146.4921012101</v>
+        <v>71158.953890618</v>
       </c>
       <c r="D17" t="n">
-        <v>59021.1625363048</v>
+        <v>59036.9095937553</v>
       </c>
       <c r="E17" t="n">
-        <v>116957.077672913</v>
+        <v>116957.1274242</v>
       </c>
       <c r="F17" t="n">
-        <v>129082.407237818</v>
+        <v>129079.171721062</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110751</v>
       </c>
       <c r="I17" t="n">
-        <v>-16699.2151129385</v>
+        <v>-16692.9593425912</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>104042.90577725</v>
+        <v>104044.179484592</v>
       </c>
       <c r="C18" t="n">
-        <v>81123.5296148871</v>
+        <v>81130.8447002507</v>
       </c>
       <c r="D18" t="n">
-        <v>68990.7447607965</v>
+        <v>69001.2579585015</v>
       </c>
       <c r="E18" t="n">
-        <v>126962.281939614</v>
+        <v>126957.514268934</v>
       </c>
       <c r="F18" t="n">
-        <v>139095.066793704</v>
+        <v>139087.101010683</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>112075</v>
       </c>
       <c r="I18" t="n">
-        <v>-8032.0942227497</v>
+        <v>-8030.82051540786</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>122069.565675969</v>
+        <v>122070.920467358</v>
       </c>
       <c r="C19" t="n">
-        <v>99145.8970891457</v>
+        <v>99153.2658929103</v>
       </c>
       <c r="D19" t="n">
-        <v>87010.8399628037</v>
+        <v>87021.3923924117</v>
       </c>
       <c r="E19" t="n">
-        <v>144993.234262792</v>
+        <v>144988.575041805</v>
       </c>
       <c r="F19" t="n">
-        <v>157128.291389134</v>
+        <v>157120.448542304</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>117015</v>
       </c>
       <c r="I19" t="n">
-        <v>5054.56567596894</v>
+        <v>5055.92046735782</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>139110.576304914</v>
+        <v>139113.875267744</v>
       </c>
       <c r="C20" t="n">
-        <v>116186.799533393</v>
+        <v>116196.115416583</v>
       </c>
       <c r="D20" t="n">
-        <v>104051.685137532</v>
+        <v>104064.186185958</v>
       </c>
       <c r="E20" t="n">
-        <v>162034.353076436</v>
+        <v>162031.635118906</v>
       </c>
       <c r="F20" t="n">
-        <v>174169.467472297</v>
+        <v>174163.56434953</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>123462</v>
       </c>
       <c r="I20" t="n">
-        <v>15648.5763049145</v>
+        <v>15651.8752677444</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>138020.431320594</v>
+        <v>138001.451677523</v>
       </c>
       <c r="C21" t="n">
-        <v>115096.480567685</v>
+        <v>115083.512104951</v>
       </c>
       <c r="D21" t="n">
-        <v>102961.274071639</v>
+        <v>102951.487735559</v>
       </c>
       <c r="E21" t="n">
-        <v>160944.382073503</v>
+        <v>160919.391250094</v>
       </c>
       <c r="F21" t="n">
-        <v>173079.588569548</v>
+        <v>173051.415619486</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>103609</v>
       </c>
       <c r="I21" t="n">
-        <v>34411.4313205939</v>
+        <v>34392.4516775225</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>113533.188722165</v>
+        <v>113533.354608785</v>
       </c>
       <c r="C22" t="n">
-        <v>90609.0691712555</v>
+        <v>90615.2429993039</v>
       </c>
       <c r="D22" t="n">
-        <v>78473.7733189464</v>
+        <v>78483.1275590727</v>
       </c>
       <c r="E22" t="n">
-        <v>136457.308273075</v>
+        <v>136451.466218267</v>
       </c>
       <c r="F22" t="n">
-        <v>148592.604125384</v>
+        <v>148583.581658498</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>90862</v>
       </c>
       <c r="I22" t="n">
-        <v>22671.1887221651</v>
+        <v>22671.3546087853</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>104412.243632659</v>
+        <v>104410.551298746</v>
       </c>
       <c r="C23" t="n">
-        <v>81488.0954598234</v>
+        <v>81492.4109043375</v>
       </c>
       <c r="D23" t="n">
-        <v>69352.7844559819</v>
+        <v>69360.2802262863</v>
       </c>
       <c r="E23" t="n">
-        <v>127336.391805495</v>
+        <v>127328.691693155</v>
       </c>
       <c r="F23" t="n">
-        <v>139471.702809336</v>
+        <v>139460.822371206</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>74343</v>
       </c>
       <c r="I23" t="n">
-        <v>30069.2436326591</v>
+        <v>30067.5512987463</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>106121.795059242</v>
+        <v>106116.499559292</v>
       </c>
       <c r="C24" t="n">
-        <v>83197.6476633185</v>
+        <v>83198.359915491</v>
       </c>
       <c r="D24" t="n">
-        <v>71062.3370707492</v>
+        <v>71066.2296347878</v>
       </c>
       <c r="E24" t="n">
-        <v>129045.942455166</v>
+        <v>129034.639203092</v>
       </c>
       <c r="F24" t="n">
-        <v>141181.253047736</v>
+        <v>141166.769483795</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>64241</v>
       </c>
       <c r="I24" t="n">
-        <v>41880.7950592425</v>
+        <v>41875.4995592915</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>139634.727440496</v>
+        <v>139632.089039753</v>
       </c>
       <c r="C25" t="n">
-        <v>116710.585505281</v>
+        <v>116713.954647597</v>
       </c>
       <c r="D25" t="n">
-        <v>104575.277803437</v>
+        <v>104581.827146946</v>
       </c>
       <c r="E25" t="n">
-        <v>162558.869375711</v>
+        <v>162550.223431909</v>
       </c>
       <c r="F25" t="n">
-        <v>174694.177077555</v>
+        <v>174682.35093256</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>82512</v>
       </c>
       <c r="I25" t="n">
-        <v>57122.727440496</v>
+        <v>57120.089039753</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>149756.358378457</v>
+        <v>149766.417079269</v>
       </c>
       <c r="C26" t="n">
-        <v>125910.427567008</v>
+        <v>125926.052879385</v>
       </c>
       <c r="D26" t="n">
-        <v>113287.154309861</v>
+        <v>113305.7264084</v>
       </c>
       <c r="E26" t="n">
-        <v>173602.289189906</v>
+        <v>173606.781279153</v>
       </c>
       <c r="F26" t="n">
-        <v>186225.562447052</v>
+        <v>186227.107750139</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>80364</v>
       </c>
       <c r="I26" t="n">
-        <v>69392.3583784567</v>
+        <v>69402.4170792692</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>132359.383979189</v>
+        <v>132374.14147524</v>
       </c>
       <c r="C27" t="n">
-        <v>108029.564368282</v>
+        <v>108049.386824574</v>
       </c>
       <c r="D27" t="n">
-        <v>95150.1358538748</v>
+        <v>95172.6395381578</v>
       </c>
       <c r="E27" t="n">
-        <v>156689.203590096</v>
+        <v>156698.896125906</v>
       </c>
       <c r="F27" t="n">
-        <v>169568.632104503</v>
+        <v>169575.643412322</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>92535</v>
       </c>
       <c r="I27" t="n">
-        <v>39824.3839791889</v>
+        <v>39839.1414752398</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>122606.377175147</v>
+        <v>122620.283943845</v>
       </c>
       <c r="C28" t="n">
-        <v>98232.8392061935</v>
+        <v>98251.9589746602</v>
       </c>
       <c r="D28" t="n">
-        <v>85330.2675910054</v>
+        <v>85352.1469548556</v>
       </c>
       <c r="E28" t="n">
-        <v>146979.915144101</v>
+        <v>146988.608913029</v>
       </c>
       <c r="F28" t="n">
-        <v>159882.48675929</v>
+        <v>159888.420932834</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>122555</v>
       </c>
       <c r="I28" t="n">
-        <v>51.3771751474706</v>
+        <v>65.2839438445808</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>99092.5478516621</v>
+        <v>99099.030252934</v>
       </c>
       <c r="C29" t="n">
-        <v>74714.6042779061</v>
+        <v>74726.187794282</v>
       </c>
       <c r="D29" t="n">
-        <v>61809.7004764127</v>
+        <v>61823.9843600077</v>
       </c>
       <c r="E29" t="n">
-        <v>123470.491425418</v>
+        <v>123471.872711586</v>
       </c>
       <c r="F29" t="n">
-        <v>136375.395226911</v>
+        <v>136374.07614586</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>74986</v>
       </c>
       <c r="I29" t="n">
-        <v>24106.5478516621</v>
+        <v>24113.030252934</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>109083.12121398</v>
+        <v>109084.614818515</v>
       </c>
       <c r="C30" t="n">
-        <v>84691.9038257921</v>
+        <v>84698.3440255555</v>
       </c>
       <c r="D30" t="n">
-        <v>71779.9732913914</v>
+        <v>71789.0320604925</v>
       </c>
       <c r="E30" t="n">
-        <v>133474.338602167</v>
+        <v>133470.885611475</v>
       </c>
       <c r="F30" t="n">
-        <v>146386.269136568</v>
+        <v>146380.197576538</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>82369</v>
       </c>
       <c r="I30" t="n">
-        <v>26714.1212139798</v>
+        <v>26715.6148185154</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>127109.690833667</v>
+        <v>127111.268193221</v>
       </c>
       <c r="C31" t="n">
-        <v>102714.437081513</v>
+        <v>102720.935702158</v>
       </c>
       <c r="D31" t="n">
-        <v>89800.3698250972</v>
+        <v>89809.4736039985</v>
       </c>
       <c r="E31" t="n">
-        <v>151504.944585822</v>
+        <v>151501.600684285</v>
       </c>
       <c r="F31" t="n">
-        <v>164419.011842237</v>
+        <v>164413.062782444</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>95012</v>
       </c>
       <c r="I31" t="n">
-        <v>32097.6908336673</v>
+        <v>32099.2681932214</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>144150.80926624</v>
+        <v>144154.335289374</v>
       </c>
       <c r="C32" t="n">
-        <v>119755.454648474</v>
+        <v>119763.904690303</v>
       </c>
       <c r="D32" t="n">
-        <v>106841.33399703</v>
+        <v>106852.390656902</v>
       </c>
       <c r="E32" t="n">
-        <v>168546.163884006</v>
+        <v>168544.765888445</v>
       </c>
       <c r="F32" t="n">
-        <v>181460.28453545</v>
+        <v>181456.279921846</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>103468</v>
       </c>
       <c r="I32" t="n">
-        <v>40682.80926624</v>
+        <v>40686.3352893742</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>143060.772200297</v>
+        <v>143042.022155395</v>
       </c>
       <c r="C33" t="n">
-        <v>118665.253167519</v>
+        <v>118651.421722501</v>
       </c>
       <c r="D33" t="n">
-        <v>105751.045480024</v>
+        <v>105739.817784504</v>
       </c>
       <c r="E33" t="n">
-        <v>167456.291233075</v>
+        <v>167432.62258829</v>
       </c>
       <c r="F33" t="n">
-        <v>180370.49892057</v>
+        <v>180344.226526286</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>100107</v>
       </c>
       <c r="I33" t="n">
-        <v>42953.7722002971</v>
+        <v>42935.0221553954</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>118573.57460694</v>
+        <v>118573.970467798</v>
       </c>
       <c r="C34" t="n">
-        <v>94177.8966025977</v>
+        <v>94183.2080245255</v>
       </c>
       <c r="D34" t="n">
-        <v>81263.6047606405</v>
+        <v>81271.5183234155</v>
       </c>
       <c r="E34" t="n">
-        <v>142969.252611282</v>
+        <v>142964.73291107</v>
       </c>
       <c r="F34" t="n">
-        <v>155883.544453239</v>
+        <v>155876.42261218</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>76490</v>
       </c>
       <c r="I34" t="n">
-        <v>42083.57460694</v>
+        <v>42083.9704677977</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109452.628261866</v>
+        <v>109451.165299656</v>
       </c>
       <c r="C35" t="n">
-        <v>85056.9233742196</v>
+        <v>85060.3758238863</v>
       </c>
       <c r="D35" t="n">
-        <v>72142.6173011009</v>
+        <v>72148.6718126361</v>
       </c>
       <c r="E35" t="n">
-        <v>133848.333149512</v>
+        <v>133841.954775427</v>
       </c>
       <c r="F35" t="n">
-        <v>146762.639222631</v>
+        <v>146753.658786677</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>61743</v>
       </c>
       <c r="I35" t="n">
-        <v>47709.628261866</v>
+        <v>47708.1652996565</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>111162.16445267</v>
+        <v>111157.097728518</v>
       </c>
       <c r="C36" t="n">
-        <v>86766.460292997</v>
+        <v>86766.3089554899</v>
       </c>
       <c r="D36" t="n">
-        <v>73852.1546052439</v>
+        <v>73854.6053162492</v>
       </c>
       <c r="E36" t="n">
-        <v>135557.868612344</v>
+        <v>135547.886501545</v>
       </c>
       <c r="F36" t="n">
-        <v>148472.174300097</v>
+        <v>148459.590140786</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50972</v>
       </c>
       <c r="I36" t="n">
-        <v>60190.1644526705</v>
+        <v>60185.0977285176</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>144675.086039093</v>
+        <v>144672.67616611</v>
       </c>
       <c r="C37" t="n">
-        <v>120279.386997976</v>
+        <v>120281.892314373</v>
       </c>
       <c r="D37" t="n">
-        <v>107365.084019823</v>
+        <v>107370.191280307</v>
       </c>
       <c r="E37" t="n">
-        <v>169070.78508021</v>
+        <v>169063.460017847</v>
       </c>
       <c r="F37" t="n">
-        <v>181985.088058364</v>
+        <v>181975.161051914</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>29010</v>
       </c>
       <c r="I37" t="n">
-        <v>115665.086039093</v>
+        <v>115662.67616611</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>154796.713891335</v>
+        <v>154807.001136548</v>
       </c>
       <c r="C38" t="n">
-        <v>129532.862623886</v>
+        <v>129547.699176445</v>
       </c>
       <c r="D38" t="n">
-        <v>116158.987617765</v>
+        <v>116176.232428162</v>
       </c>
       <c r="E38" t="n">
-        <v>180060.565158784</v>
+        <v>180066.30309665</v>
       </c>
       <c r="F38" t="n">
-        <v>193434.440164905</v>
+        <v>193437.769844934</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>42950</v>
       </c>
       <c r="I38" t="n">
-        <v>111846.713891335</v>
+        <v>111857.001136548</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>137399.74065806</v>
+        <v>137414.726797088</v>
       </c>
       <c r="C39" t="n">
-        <v>111678.661404916</v>
+        <v>111697.746171249</v>
       </c>
       <c r="D39" t="n">
-        <v>98062.7445238155</v>
+        <v>98083.998972383</v>
       </c>
       <c r="E39" t="n">
-        <v>163120.819911204</v>
+        <v>163131.707422927</v>
       </c>
       <c r="F39" t="n">
-        <v>176736.736792304</v>
+        <v>176745.454621793</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>96292</v>
       </c>
       <c r="I39" t="n">
-        <v>41107.7406580597</v>
+        <v>41122.7267970878</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>127646.735692078</v>
+        <v>127660.87117339</v>
       </c>
       <c r="C40" t="n">
-        <v>101884.298664945</v>
+        <v>101902.674832607</v>
       </c>
       <c r="D40" t="n">
-        <v>88246.4883007809</v>
+        <v>88267.1093521925</v>
       </c>
       <c r="E40" t="n">
-        <v>153409.172719211</v>
+        <v>153419.067514173</v>
       </c>
       <c r="F40" t="n">
-        <v>167046.983083376</v>
+        <v>167054.632994587</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>122646</v>
       </c>
       <c r="I40" t="n">
-        <v>5000.73569207826</v>
+        <v>5014.87117338993</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>104132.907348237</v>
+        <v>104139.618481397</v>
       </c>
       <c r="C41" t="n">
-        <v>78366.3022304159</v>
+        <v>78377.1484068623</v>
       </c>
       <c r="D41" t="n">
-        <v>64726.2854123228</v>
+        <v>64739.3205484601</v>
       </c>
       <c r="E41" t="n">
-        <v>129899.512466059</v>
+        <v>129902.088555932</v>
       </c>
       <c r="F41" t="n">
-        <v>143539.529284152</v>
+        <v>143539.916414334</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>103060</v>
       </c>
       <c r="I41" t="n">
-        <v>1072.90734823742</v>
+        <v>1079.61848139703</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>114123.480845756</v>
+        <v>114125.203172997</v>
       </c>
       <c r="C42" t="n">
-        <v>88344.316938963</v>
+        <v>88350.0287274774</v>
       </c>
       <c r="D42" t="n">
-        <v>74697.6518995772</v>
+        <v>74705.4755813196</v>
       </c>
       <c r="E42" t="n">
-        <v>139902.644752549</v>
+        <v>139900.377618517</v>
       </c>
       <c r="F42" t="n">
-        <v>153549.309791935</v>
+        <v>153544.930764675</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115898</v>
       </c>
       <c r="I42" t="n">
-        <v>-1774.519154244</v>
+        <v>-1772.7968270026</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>132150.050253216</v>
+        <v>132151.856321894</v>
       </c>
       <c r="C43" t="n">
-        <v>106367.067257368</v>
+        <v>106372.839000815</v>
       </c>
       <c r="D43" t="n">
-        <v>92718.3805143589</v>
+        <v>92726.2515592193</v>
       </c>
       <c r="E43" t="n">
-        <v>157933.033249064</v>
+        <v>157930.873642973</v>
       </c>
       <c r="F43" t="n">
-        <v>171581.719992073</v>
+        <v>171577.46108457</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>108442</v>
       </c>
       <c r="I43" t="n">
-        <v>23708.0502532161</v>
+        <v>23709.8563218944</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>149191.168486861</v>
+        <v>149194.923211922</v>
       </c>
       <c r="C44" t="n">
-        <v>123408.090053051</v>
+        <v>123415.813066488</v>
       </c>
       <c r="D44" t="n">
-        <v>109759.352788237</v>
+        <v>109769.176486646</v>
       </c>
       <c r="E44" t="n">
-        <v>174974.24692067</v>
+        <v>174974.033357357</v>
       </c>
       <c r="F44" t="n">
-        <v>188622.984185484</v>
+        <v>188620.669937199</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>119375</v>
       </c>
       <c r="I44" t="n">
-        <v>29816.1684868606</v>
+        <v>29819.9232119224</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>148101.131342256</v>
+        <v>148082.609998437</v>
       </c>
       <c r="C45" t="n">
-        <v>122317.89734329</v>
+        <v>122303.339168405</v>
       </c>
       <c r="D45" t="n">
-        <v>108669.077727256</v>
+        <v>108656.617527275</v>
       </c>
       <c r="E45" t="n">
-        <v>173884.365341222</v>
+        <v>173861.88082847</v>
       </c>
       <c r="F45" t="n">
-        <v>187533.184957256</v>
+        <v>187508.6024696</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>125319</v>
       </c>
       <c r="I45" t="n">
-        <v>22782.1313422558</v>
+        <v>22763.6099984373</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>123613.93375437</v>
+        <v>123614.558318114</v>
       </c>
       <c r="C46" t="n">
-        <v>97830.5493399402</v>
+        <v>97835.1342046867</v>
       </c>
       <c r="D46" t="n">
-        <v>84181.6500987693</v>
+        <v>84188.3314202289</v>
       </c>
       <c r="E46" t="n">
-        <v>149397.3181688</v>
+        <v>149393.982431542</v>
       </c>
       <c r="F46" t="n">
-        <v>163046.217409971</v>
+        <v>163040.785216</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>102559</v>
       </c>
       <c r="I46" t="n">
-        <v>21054.9337543702</v>
+        <v>21055.5583181144</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>114492.987438334</v>
+        <v>114491.753180664</v>
       </c>
       <c r="C47" t="n">
-        <v>88709.5775874045</v>
+        <v>88712.3034907924</v>
       </c>
       <c r="D47" t="n">
-        <v>75060.6648809643</v>
+        <v>75065.4871669832</v>
       </c>
       <c r="E47" t="n">
-        <v>140276.397289263</v>
+        <v>140271.202870535</v>
       </c>
       <c r="F47" t="n">
-        <v>153925.309995703</v>
+        <v>153918.019194344</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>90744</v>
       </c>
       <c r="I47" t="n">
-        <v>23748.9874383336</v>
+        <v>23747.7531806638</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>116202.523648733</v>
+        <v>116197.685629761</v>
       </c>
       <c r="C48" t="n">
-        <v>90419.1144865981</v>
+        <v>90418.2366047808</v>
       </c>
       <c r="D48" t="n">
-        <v>76770.2021447838</v>
+        <v>76771.4206329436</v>
       </c>
       <c r="E48" t="n">
-        <v>141985.932810867</v>
+        <v>141977.134654742</v>
       </c>
       <c r="F48" t="n">
-        <v>155634.845152681</v>
+        <v>155623.950626579</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>73835</v>
       </c>
       <c r="I48" t="n">
-        <v>42367.5236487326</v>
+        <v>42362.6856297613</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>149715.445240317</v>
+        <v>149713.264072443</v>
       </c>
       <c r="C49" t="n">
-        <v>123932.040921255</v>
+        <v>123933.819703664</v>
       </c>
       <c r="D49" t="n">
-        <v>110283.131143208</v>
+        <v>110287.00619667</v>
       </c>
       <c r="E49" t="n">
-        <v>175498.849559379</v>
+        <v>175492.708441223</v>
       </c>
       <c r="F49" t="n">
-        <v>189147.759337426</v>
+        <v>189139.521948216</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>67461</v>
       </c>
       <c r="I49" t="n">
-        <v>82254.4452403169</v>
+        <v>82252.2640724431</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
